--- a/DATA SCIENCE.xlsx
+++ b/DATA SCIENCE.xlsx
@@ -5,21 +5,37 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCH2002\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCH2002\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3DE3A6-A431-4076-87B1-67D6509385BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC8FC6FD-4C81-47DD-8C8B-F5FDB83C668B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C3DE5521-5D18-4F61-84E9-1D0ACF452591}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C3DE5521-5D18-4F61-84E9-1D0ACF452591}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="PIVOT" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$C$8</definedName>
+    <definedName name="Slicer_AGE">#N/A</definedName>
+    <definedName name="Slicer_NAME">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="21" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -39,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>s.no</t>
   </si>
@@ -65,7 +81,70 @@
     <t>amount</t>
   </si>
   <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
     <t>LLLL</t>
+  </si>
+  <si>
+    <t>PIVOT TABLE</t>
+  </si>
+  <si>
+    <t>CHARAN</t>
+  </si>
+  <si>
+    <t>RAGHU</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>AMEY</t>
+  </si>
+  <si>
+    <t>AREY</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>KIRAN</t>
+  </si>
+  <si>
+    <t>KAVI</t>
+  </si>
+  <si>
+    <t>DHARSHINI</t>
+  </si>
+  <si>
+    <t>DHARHAN</t>
+  </si>
+  <si>
+    <t>DHARSHAN</t>
+  </si>
+  <si>
+    <t>AMIT</t>
+  </si>
+  <si>
+    <t>AASHU</t>
+  </si>
+  <si>
+    <t>AKSHAY</t>
+  </si>
+  <si>
+    <t>VIGNESH</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Count of AGE</t>
   </si>
 </sst>
 </file>
@@ -135,12 +214,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +243,1951 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[DATA SCIENCE.xlsx]PIVOT!PivotTable8</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PIVOT!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>PIVOT!$A$4:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>AASHU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AKSHAY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AMEY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMIT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AREY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CHARAN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DHARHAN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DHARSHAN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DHARSHINI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>KAVI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>KIRAN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RAGHU</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>RAM</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SAM</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>VIGNESH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PIVOT!$B$4:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DAA-46FE-8ADA-0E5E0F9C7618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{174042A1-28F4-B7A8-1122-77053A6C598E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22222</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="NAME">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874878B9-DA2F-5D05-97D1-2E994785120D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="NAME"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7816850" y="1085850"/>
+              <a:ext cx="1828800" cy="2619372"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182560</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="AGE">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC57644-4ED0-2AC8-3795-00EDD8F1203C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="AGE"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10109200" y="1852613"/>
+              <a:ext cx="1828800" cy="2381247"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="P, Charan" refreshedDate="45314.341186921294" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{5D86CA87-C1ED-4DCA-B1F9-166BD961E952}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B19:C36" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="NAME" numFmtId="0">
+      <sharedItems count="15">
+        <s v="CHARAN"/>
+        <s v="RAGHU"/>
+        <s v="RAM"/>
+        <s v="AMEY"/>
+        <s v="AREY"/>
+        <s v="SAM"/>
+        <s v="KIRAN"/>
+        <s v="KAVI"/>
+        <s v="DHARSHINI"/>
+        <s v="DHARHAN"/>
+        <s v="DHARSHAN"/>
+        <s v="AMIT"/>
+        <s v="AASHU"/>
+        <s v="AKSHAY"/>
+        <s v="VIGNESH"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="AGE" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2121" count="9">
+        <n v="19"/>
+        <n v="23"/>
+        <n v="2"/>
+        <n v="432"/>
+        <n v="43"/>
+        <n v="42"/>
+        <n v="2121"/>
+        <n v="34"/>
+        <n v="32"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1438406938"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="8"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6429A0E7-2498-4206-86BD-4BC71A33A00B}" name="PivotTable8" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="12"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="10">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of AGE" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_NAME" xr10:uid="{ADF8262A-75B7-4943-A5F1-39AC86CFF725}" sourceName="NAME">
+  <pivotTables>
+    <pivotTable tabId="8" name="PivotTable8"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1438406938">
+      <items count="15">
+        <i x="12" s="1"/>
+        <i x="13" s="1"/>
+        <i x="3" s="1"/>
+        <i x="11" s="1"/>
+        <i x="4" s="1"/>
+        <i x="0" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="8" s="1"/>
+        <i x="7" s="1"/>
+        <i x="6" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="5" s="1"/>
+        <i x="14" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_AGE" xr10:uid="{7B208472-0C09-4474-9262-7A7B8AC77BFB}" sourceName="AGE">
+  <pivotTables>
+    <pivotTable tabId="8" name="PivotTable8"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1438406938">
+      <items count="9">
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="8" s="1"/>
+        <i x="7" s="1"/>
+        <i x="5" s="1"/>
+        <i x="4" s="1"/>
+        <i x="3" s="1"/>
+        <i x="6" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="NAME" xr10:uid="{4E25462D-AD1F-4FAA-90B9-89EC764CE09F}" cache="Slicer_NAME" caption="NAME" startItem="1" rowHeight="251883"/>
+  <slicer name="AGE" xr10:uid="{F42C82C7-460D-45EA-9073-63FC912C94F7}" cache="Slicer_AGE" caption="AGE" rowHeight="251883"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,11 +2506,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B852A-3630-4C3C-A58A-B4D3807C2F83}">
-  <dimension ref="A1:K51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E16C930-E360-4915-84B3-923257F10ED5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9621CEF6-A9B2-49F1-96E7-3BF03546C896}">
+  <dimension ref="A3:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B852A-3630-4C3C-A58A-B4D3807C2F83}">
+  <dimension ref="A1:K52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,36 +2784,177 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I33" s="1"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>43</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>42</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K48" s="3"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="K49" s="3"/>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
